--- a/mvp/тест шопінг  меню 1.xlsx
+++ b/mvp/тест шопінг  меню 1.xlsx
@@ -448,6 +448,15 @@
           <t>меню 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -477,12 +486,12 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
+          <t>% вартості</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
           <t>% ціни</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>% вартості</t>
         </is>
       </c>
     </row>

--- a/mvp/тест шопінг  меню 1.xlsx
+++ b/mvp/тест шопінг  меню 1.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,13 +449,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>32500</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>425.24</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>258.9</v>
       </c>
     </row>
     <row r="3">
@@ -481,18 +481,237 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>% к-ті</t>
+          <t>% вартості</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>% вартості</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
           <t>% ціни</t>
         </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>буряк</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>875</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>вода</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>капуста</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>картопля</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>160</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>морква</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2875</v>
+      </c>
+      <c r="C8" t="n">
+        <v>18.1125</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>олія</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>250</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="D9" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>сіль</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>125</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>фасоля</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1875</v>
+      </c>
+      <c r="C11" t="n">
+        <v>17.8125</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>цибуля</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>горошок конс.</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>750</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15.375</v>
+      </c>
+      <c r="D13" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>квашений огірок</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>975</v>
+      </c>
+      <c r="C14" t="n">
+        <v>10.8225</v>
+      </c>
+      <c r="D14" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>кукурузда конс.</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>375</v>
+      </c>
+      <c r="C15" t="n">
+        <v>11.325</v>
+      </c>
+      <c r="D15" t="n">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>майонез</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>375</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>молочна ковбаса</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C17" t="n">
+        <v>150</v>
+      </c>
+      <c r="D17" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
